--- a/Data/TaskClassificationV2.xlsx
+++ b/Data/TaskClassificationV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f3a64fd22cbca20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6E78F652-7293-4A34-BC34-525993C2361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B5679F6-F186-4E92-8419-665D044D1204}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B511F-BBE9-4CB4-9EC3-164820977DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
   <si>
     <t>Object-Subject</t>
   </si>
@@ -272,15 +272,9 @@
     <t>Klarion</t>
   </si>
   <si>
-    <t>OT1</t>
-  </si>
-  <si>
     <t>Cindy</t>
   </si>
   <si>
-    <t>OT2</t>
-  </si>
-  <si>
     <t>Arthur</t>
   </si>
   <si>
@@ -398,13 +392,88 @@
     <t>Number of Advance dental chain in the clinic</t>
   </si>
   <si>
-    <t>OTH</t>
-  </si>
-  <si>
     <t>LV1</t>
   </si>
   <si>
     <t>LV2</t>
+  </si>
+  <si>
+    <t>OHT</t>
+  </si>
+  <si>
+    <t>OHT1</t>
+  </si>
+  <si>
+    <t>OHT2</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>OHT3</t>
+  </si>
+  <si>
+    <t>Marlo</t>
+  </si>
+  <si>
+    <t>OHT4</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>OHT5</t>
+  </si>
+  <si>
+    <t>Lorean</t>
+  </si>
+  <si>
+    <t>OHT6</t>
+  </si>
+  <si>
+    <t>Jannik</t>
+  </si>
+  <si>
+    <t>OHT7</t>
+  </si>
+  <si>
+    <t>LV3</t>
+  </si>
+  <si>
+    <t>Nashvile</t>
+  </si>
+  <si>
+    <t>D1N3</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>D1N4</t>
+  </si>
+  <si>
+    <t>D2N2</t>
+  </si>
+  <si>
+    <t>D2N3</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Ello</t>
+  </si>
+  <si>
+    <t>Myrion</t>
+  </si>
+  <si>
+    <t>D3N2</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>D3N3</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1037,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="b">
         <v>0</v>
@@ -1027,7 +1096,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>1</v>
@@ -1086,7 +1155,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="b">
         <v>1</v>
@@ -1204,7 +1273,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4" t="b">
         <v>1</v>
@@ -1263,7 +1332,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4" t="b">
         <v>1</v>
@@ -1322,7 +1391,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4" t="b">
         <v>1</v>
@@ -1381,7 +1450,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
@@ -1590,7 +1659,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1769,7 +1838,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="24.62890625" customWidth="1"/>
-    <col min="2" max="2" width="7.3671875" customWidth="1"/>
+    <col min="2" max="2" width="11.62890625" customWidth="1"/>
     <col min="3" max="3" width="47.47265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1784,10 +1853,10 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1801,10 +1870,10 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1818,10 +1887,10 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1835,10 +1904,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1852,10 +1921,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1869,10 +1938,10 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1886,15 +1955,15 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="11">
         <v>8</v>
@@ -1903,15 +1972,15 @@
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="11">
         <v>40</v>
@@ -1920,10 +1989,10 @@
         <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1937,10 +2006,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1954,10 +2023,10 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1968,64 +2037,64 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="12">
         <v>0.33333333333333331</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="13">
-        <v>0.83333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="11">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2035,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2097,7 +2166,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>122</v>
@@ -2108,10 +2177,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
@@ -2122,58 +2191,212 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6">
-        <v>56000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>62000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>68000</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19">
         <v>85000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20">
+        <v>90000</v>
       </c>
     </row>
   </sheetData>
@@ -2198,24 +2421,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2227,12 +2450,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2244,12 +2467,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2261,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TaskClassificationV2.xlsx
+++ b/Data/TaskClassificationV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B511F-BBE9-4CB4-9EC3-164820977DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57AE0D-B190-4666-9759-65987B984171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -952,31 +952,31 @@
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.47265625" customWidth="1"/>
-    <col min="2" max="2" width="16.47265625" customWidth="1"/>
-    <col min="3" max="3" width="18.47265625" customWidth="1"/>
-    <col min="4" max="4" width="17.47265625" customWidth="1"/>
-    <col min="5" max="5" width="15.3671875" customWidth="1"/>
-    <col min="6" max="6" width="29.47265625" customWidth="1"/>
-    <col min="7" max="7" width="16.47265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26171875" customWidth="1"/>
-    <col min="9" max="9" width="24.89453125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.47265625" customWidth="1"/>
-    <col min="12" max="12" width="15.1015625" customWidth="1"/>
-    <col min="13" max="13" width="13.26171875" customWidth="1"/>
-    <col min="14" max="14" width="19.47265625" customWidth="1"/>
-    <col min="15" max="15" width="15.26171875" customWidth="1"/>
-    <col min="16" max="16" width="15.47265625" customWidth="1"/>
-    <col min="17" max="17" width="17.26171875" customWidth="1"/>
-    <col min="18" max="18" width="13.89453125" customWidth="1"/>
-    <col min="19" max="19" width="19.89453125" customWidth="1"/>
-    <col min="20" max="20" width="17.26171875" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
@@ -1521,14 +1521,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.47265625" customWidth="1"/>
-    <col min="2" max="2" width="12.26171875" customWidth="1"/>
-    <col min="3" max="3" width="97.26171875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="97.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1649,25 +1649,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
     </row>
   </sheetData>
@@ -1683,14 +1683,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1015625" customWidth="1"/>
-    <col min="2" max="2" width="13.47265625" customWidth="1"/>
-    <col min="3" max="3" width="84.47265625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1831,18 +1831,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.62890625" customWidth="1"/>
-    <col min="2" max="2" width="11.62890625" customWidth="1"/>
-    <col min="3" max="3" width="47.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -2106,20 +2106,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3671875" customWidth="1"/>
-    <col min="2" max="2" width="16.47265625" customWidth="1"/>
-    <col min="3" max="3" width="13.734375" customWidth="1"/>
-    <col min="4" max="4" width="12.62890625" customWidth="1"/>
-    <col min="5" max="5" width="10.47265625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -2412,14 +2412,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="23.1015625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
